--- a/medicine/Psychotrope/Liste_des_cépages_par_pays/Liste_des_cépages_par_pays.xlsx
+++ b/medicine/Psychotrope/Liste_des_cépages_par_pays/Liste_des_cépages_par_pays.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_c%C3%A9pages_par_pays</t>
+          <t>Liste_des_cépages_par_pays</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque région viticole cultive certains cépages. C'est à partir de ces derniers que les vignerons élaborent leurs vins, à partir d'un seul cépage ou d'un mélange, suivant les régions et les appellations.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_c%C3%A9pages_par_pays</t>
+          <t>Liste_des_cépages_par_pays</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,61 +525,283 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Afrique du Nord
-Viticulture en Égypte
-Afrique australe
-Les vins sud-africains font la part belle au chenin ou au pinotage.
-Viticulture (restreinte) au Zimbabwe[1]
-Autres
-Vignoble des Canaries
+          <t>Afrique du Nord</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Viticulture en Égypte</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Afrique australe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les vins sud-africains font la part belle au chenin ou au pinotage.
+Viticulture (restreinte) au Zimbabwe</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vignoble des Canaries
 Viticulture à Madère : Madère (DOC)
 Açores (VR), Paysage viticole de l'île du Pico
 Viticulture au Cap-Vert : muscat blanc, preta tradicional
-Viticulture à Madagascar[2]
+Viticulture à Madagascar
 Viticulture à La Réunion, Cilaos (Vin), Vigne marronne
-Viticulture en Éthiopie[3] : Nazret, Ziway, 11 millions de bouteilles/an, cépages : Sangiovese, Merlot, Syrah, Chenin Blanc, Chardonnay, Sauvignon Blanc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_c%C3%A9pages_par_pays</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Viticulture en Éthiopie : Nazret, Ziway, 11 millions de bouteilles/an, cépages : Sangiovese, Merlot, Syrah, Chenin Blanc, Chardonnay, Sauvignon Blanc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Amérique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Canada
-Nombre de cépages sont cultivés au Canada.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nombre de cépages sont cultivés au Canada.
 Tels que, Vidal, Seyval, Frontenac, Maréchal Foch, St-Pépin, Chardonnay, Marquette, Pinot Noir, Riesling, Petite Perle, Sabrevois, Radisson, Lucy Kuhlmann, Cabernet Franc, Vandal-Cliche, Baco noir, Geisenheim, Louise Swenson, De Chaunac, Gamay, Pionnier, St-Croix et plus encore...
- États-Unis
-De manière générale, les viticulteurs des États-Unis ont privilégié les cépages internationaux : cabernet sauvignon, merlot et chardonnay dominent la production américaine, le plus souvent sous la forme de vins mono-cépages. Il est à noter cependant la montée depuis les années 1990 des cépages italiens (notamment le sangiovese) dans la région de Napa, la popularité croissante du pinot noir, dans lequel certaines régions au climat propice se sont spécialisées (notamment Anderson Valley, Russian River, Los Carneros, le comté de Santa Barbara et l'Oregon), la pratique de plus en plus courante d'assemblages sur le modèle des vins de Bordeaux et l'apparition de vins inspirés par les Côtes du Rhône, à base de syrah, mourvèdre, viognier et de grenache.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De manière générale, les viticulteurs des États-Unis ont privilégié les cépages internationaux : cabernet sauvignon, merlot et chardonnay dominent la production américaine, le plus souvent sous la forme de vins mono-cépages. Il est à noter cependant la montée depuis les années 1990 des cépages italiens (notamment le sangiovese) dans la région de Napa, la popularité croissante du pinot noir, dans lequel certaines régions au climat propice se sont spécialisées (notamment Anderson Valley, Russian River, Los Carneros, le comté de Santa Barbara et l'Oregon), la pratique de plus en plus courante d'assemblages sur le modèle des vins de Bordeaux et l'apparition de vins inspirés par les Côtes du Rhône, à base de syrah, mourvèdre, viognier et de grenache.
 Côté spécialités, les Californiens ont le zinfandel, notamment très usité pour la production de rosés, et la petite syrah (une variante du durif).
- Mexique
- Argentine
-L'Argentine travaille avec bonheur le malbec et le tannat, comme l'Uruguay.
- Chili
-D'encépagement d'origine européenne, le vignoble chilien exploite parfaitement les cépages cabernet sauvignon, cabernet franc et malbec pour les rouges, sauvignon et chardonnay pour les blancs. On y cultive également le merlot, le petit verdot, le sémillon, le riesling et le muscat. Le carménère est en train de devenir une originalité chilienne. Ce cépage, autorisé en bordelais, confondu fréquemment avec le merlot, y est délaissé depuis le phylloxéra car jugé trop fragile. Il trouve au Chili, où on le vinifie seul ou associé, un climat semblant moins menaçant. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Argentine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Argentine travaille avec bonheur le malbec et le tannat, comme l'Uruguay.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chili</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'encépagement d'origine européenne, le vignoble chilien exploite parfaitement les cépages cabernet sauvignon, cabernet franc et malbec pour les rouges, sauvignon et chardonnay pour les blancs. On y cultive également le merlot, le petit verdot, le sémillon, le riesling et le muscat. Le carménère est en train de devenir une originalité chilienne. Ce cépage, autorisé en bordelais, confondu fréquemment avec le merlot, y est délaissé depuis le phylloxéra car jugé trop fragile. Il trouve au Chili, où on le vinifie seul ou associé, un climat semblant moins menaçant. 
 La Criolla chica ou país est un cépage d'origine espagnole, utilisé pour la production de vins modestes. Le Tamarugal, découvert dans le désert du même nom, devient de ce fait un cépage blanc autochtone du Chili.
-Cépages pour la vinification en rouge
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chili</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cépages pour la vinification en rouge</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 cabernet franc
 cabernet sauvignon
 carménère
@@ -576,30 +810,105 @@
 país
 petit verdot
 pinot noir
-Cépages pour la vinification en blanc
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chili</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cépages pour la vinification en blanc</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 chardonnay
 muscat
 pinot blanc
 riesling
 sauvignon
 sémillon
-Autres pays d'Amérique latine
-Vin du Nouveau Monde
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres pays d'Amérique latine</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Vin du Nouveau Monde
 Viticulture en Bolivie depuis 1548 :
 Région de La Paz : El Alto,
 Région de Santa Cruz,
 Région de Chuquisaca,
 Région de Tarija.
-Viticulture en Colombie[4]
+Viticulture en Colombie
 Viticulture à Cuba :
 Pinar del Rio,
 La Havane : Matanzas,
 Las Villas,
 Camagüey,
 Oriente : Sierra Maestra.
-Viticulture en Équateur[5]
+Viticulture en Équateur
 Viticulture au Paraguay
-Viticulture au Pérou[6] depuis 1540 :
+Viticulture au Pérou depuis 1540 :
 Région de Lima
 Région d'Ica,
 Région d'Arequipa,
@@ -608,84 +917,194 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_c%C3%A9pages_par_pays</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Asie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Moyen-Orient et Asie de l'Ouest
-Viticulture en Jordanie (en) : Cabernet Sauvignon, Merlot, Shiraz, Pinot noir ; Chardonnay, Muscat, Pinot gris, Gewürztraminer, Chenin Blanc.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Moyen-Orient et Asie de l'Ouest</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viticulture en Jordanie (en) : Cabernet Sauvignon, Merlot, Shiraz, Pinot noir ; Chardonnay, Muscat, Pinot gris, Gewürztraminer, Chenin Blanc.
 Viticulture au Liban : Cabernet Sauvignon, Merlot, Carignan, Cinsault ; Chardonnay, Clairette, Merwah, Obeidi...
 Viticulture en Palestine (en) antique
 Viticulture en Syrie, Domaine de Bargylus : Syrah, Merlot, Cabernet Sauvignon ; Chardonnay, Sauvignon Blanc.
 Viticulture en Israël : Syrah, Merlot, Cabernet Sauvignon ; Chardonnay, Sauvignon Blanc.
-Asie centrale
-Viticulture en Iran, Vin persan, Vin de Shiraz
-Viticulture au Kazakhstan
-Asie du Sud et de l'Est
-Viticulture au Bhoutan (en)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Asie centrale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Viticulture en Iran, Vin persan, Vin de Shiraz
+Viticulture au Kazakhstan</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Asie du Sud et de l'Est</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Viticulture au Bhoutan (en)
 Viticulture en Inde
 Viticulture en Indonésie
 Viticulture au Népal (en)
-Viticulture en Ouzbékistan[7]
+Viticulture en Ouzbékistan
 Viticulture aux Philippines (en)
 Viticulture au Sri Lanka
 Viticulture en ThaïlandeViticulture en Thaïlande : Black Queen, Pokdum, Cabernet Sauvignon, Dornfelder, Grenache, Pinot Noir, Sangiovese, Shiraz/Syrah, Tempranillo ; Chenin Blanc, Colombard, Malaga Blanc, Viognier.
-Viticulture au Vietnam[8]
-Extrême-Orient
-Viticulture en Chine
+Viticulture au Vietnam</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Extrême-Orient</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Viticulture en Chine
 Viticulture en Corée du Sud
 Viticulture au Japon
 Viticulture à Taïwan (en)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_c%C3%A9pages_par_pays</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve"> Australie et  Nouvelle-Zélande</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>La Nouvelle-Zélande s'est fait une réputation sur le sauvignon blanc ; ses pinots noirs donnent des résultats prometteurs. La Nouvelle-Zélande possède une très grande variété de cépages. Sauvignon Blanc, Chardonnay, Pinot gris, Riesling, Gewurztraminer, Viognier et même en très petite quantité Grüner Veltliner, Arneis et Verdelho blanc pour les vins blanc. Pour les vins rouge, le Pinot noir est le premier en quantité, mais le pays produit aussi du Cabernet sauvignon du Merlot, de la Syrah, du Malbec et même du Tempranillo.
 Les Australiens cultivent notamment la Syrah qu'ils appellent Shiraz et le sémillon.
@@ -693,34 +1112,43 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_c%C3%A9pages_par_pays</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Allemagne
-Blancs
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Allemagne</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Blancs</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Gewurztraminer
 Grauburgunder
 Gutedel
@@ -730,7 +1158,47 @@
 Scheurebe
 Sylvaner
 Weißburgunder
-Rouges
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Allemagne</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Rouges</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dornfelder
 Lemberger
 Portugais bleu
@@ -739,8 +1207,47 @@
 Spätburgunder
 Saint-laurent
 Trollinger
-Franconie
-Blancs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Allemagne</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Franconie</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Blancs
 Bacchus
 Müller-thurgau
 Rieslaner
@@ -748,23 +1255,172 @@
 Scheurebe
 Silvaner
 Rouges
-Domina
- Autriche
-Blancs
-Grüner Veltliner
-Rouges
-Blaufränkisch
+Domina</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Autriche</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Blancs</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Grüner Veltliner</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Autriche</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Rouges</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Blaufränkisch
 Dornfelder
-Zweigelt
- Espagne
-Vignoble de Xérès
-Blanc
+Zweigelt</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Espagne</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Vignoble de Xérès</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Blanc
 Palomino
 Pedro ximénez
-Muscat ou moscatel en espagnol
- France
-Alsace
-Les vins d'Alsace sont en général élaborés à partir d'un seul cépage. Ils sont dits mono-cépages.
+Muscat ou moscatel en espagnol</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Alsace</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Les vins d'Alsace sont en général élaborés à partir d'un seul cépage. Ils sont dits mono-cépages.
 Exceptions : l'Edelzwicker n'est pas un vin de cépage mais un assemblage de cépages. Le Pinot d'Alsace est, selon le cas, un assemblage ou un monocépage.
 Les grands crus d'Alsace peuvent être soit des monocépages soit des assemblages.
 Blancs
@@ -775,14 +1431,90 @@
 sylvaner
 Pinot blanc ou Auxerrois
 Rouges et rosés
-Pinot noir
-Beaujolais
-Rouges
+Pinot noir</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Beaujolais</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Rouges
 Gamay
 Blancs
-Chardonnay
-Bordelais
-En Bordeaux, les vignerons mélangent traditionnellement différents cépages locaux.
+Chardonnay</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Bordelais</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>En Bordeaux, les vignerons mélangent traditionnellement différents cépages locaux.
 Rouges
 Cabernet sauvignon (surtout sur la rive gauche, le Médoc)
 Merlot (surtout sur la rive droite, le Libournais)
@@ -793,9 +1525,47 @@
 Blancs
 Sauvignon
 Sémillon
-Muscadelle
-Bourgogne
-Rouges
+Muscadelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Rouges
 Pinot noir
 César ou Romain
 Gamay
@@ -805,9 +1575,47 @@
 Sauvignon
 Aligoté
 Melon de Bourgogne
-Sacy
-Champagne[9]
-Les trois principaux cépages de Champagne sont :
+Sacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Champagne[9]</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Les trois principaux cépages de Champagne sont :
 Chardonnay (30 % du vignoble)
 Pinot noir (38 %)
 Pinot meunier (32 %)
@@ -815,9 +1623,47 @@
 Pinot Blanc
 Pinot Gris
 Arbane
-Petit Meslier
-Corse
-Après une longue période de production avec des cépages importés, la Corse fournit aujourd'hui des vins issus principalement de cépages plus locaux tels que le nielluccio en rouge et vermentino en blanc (ces cépages sont d'ailleurs devenus presque exclusifs pour les Patrimonio).
+Petit Meslier</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Corse</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une longue période de production avec des cépages importés, la Corse fournit aujourd'hui des vins issus principalement de cépages plus locaux tels que le nielluccio en rouge et vermentino en blanc (ces cépages sont d'ailleurs devenus presque exclusifs pour les Patrimonio).
 Cépages pour la vinification en rouge
 Aubun
 Aleaticu
@@ -837,16 +1683,93 @@
 Carcaghjolu Biancu
 Rossula Bianca
 Vermentinu
-Jura
-Rouges
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Jura</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Rouges
 Poulsard (ou Ploussard)
 Pinot noir
 Trousseau
 Blancs
 Savagnin
-Chardonnay
-Languedoc-Roussillon
-Blancs
+Chardonnay</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Languedoc-Roussillon</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blancs
 Aubun
 Grenache
 Malvoisie
@@ -866,8 +1789,47 @@
 Syrah
 Piquepoul : cépage originaire du Midi de la France, le plus souvent blanc, appelé communément « picpoul ». Il donne des vins blancs secs très fruités d'une belle couleur jaune et frais. C'est le cépage du picpoul de Pinet dans l'Hérault.Il existe dans des superficies confidentielles de piquepoul rouge produisant des vins rouges qui ne sont pas inintéressants.
 Aramon : cépage d'origine incertaine, mais que certains disent provenir d'Espagne. Aux XIXe et XXe siècles, ce fut un cépage très cultivé dans tout le Midi, qui désormais est pratiquement tombé dans l'oubli, depuis longtemps il n'est plus planté. Très sensible à l'excoriose, à l'oïdium et au mildiou, il craint les gelées printanières. L'aramon, cépage très productif, surtout lorsque greffé sur un porte-greffe vigoureux et planté dans des terres riches et irriguées, donne de très importants rendements, mais des vins rouges très légers, faibles en alcool et en couleur très souples. Dans des sols pauvres et secs avec un porte-greffe adapté, l'aramon donne des vins souples et fruités avec un titre alcoolique de 10 ° / 11 °.L'aramon est un cépage qui depuis longtemps tombe en désuétude dans tout le Languedoc.
-Lorraine
-Le vignoble Lorrain a beaucoup réduit depuis le XIXe siècle, cependant les vins des Côtes-de-toul, à l'Ouest de Nancy, restent assez connus dont le fameux vin Gris de Toul.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Lorraine</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Le vignoble Lorrain a beaucoup réduit depuis le XIXe siècle, cependant les vins des Côtes-de-toul, à l'Ouest de Nancy, restent assez connus dont le fameux vin Gris de Toul.
 Blancs
 Aubin blanc
 Aubin vert
@@ -876,9 +1838,47 @@
 Gamay en assemblage, avec présence éventuelle de Pinot noir, Meunier...
 Rouges
 Gamay
-Pinot noir
-Provence
-Rouges
+Pinot noir</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Provence</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Rouges
 Aubun
 Cinsault
 Grenache
@@ -892,9 +1892,47 @@
 Clairette
 Sémillon
 Ugni blanc
-Rolle
-Savoie
-Blancs
+Rolle</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Savoie</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Blancs
 Altesse (donnant la roussette )
 Bergeron (Roussane)
 Chardonnay
@@ -905,9 +1943,47 @@
 Rouges
 Pinot noir
 Gamay
-Mondeuse
-Sud-Ouest
-Groupant sous la même bannière des appellations aussi éloignées qu'irouléguy, bergerac, gaillac, jurançon, la région viticole du Sud-Ouest rassemble ce que les Bordelais appelaient "les vins du Haut Pays" et le vignoble de l'Adour.
+Mondeuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Sud-Ouest</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Groupant sous la même bannière des appellations aussi éloignées qu'irouléguy, bergerac, gaillac, jurançon, la région viticole du Sud-Ouest rassemble ce que les Bordelais appelaient "les vins du Haut Pays" et le vignoble de l'Adour.
 On trouve donc une grande diversité de cépages.
 Rouges
 Abouriou
@@ -936,8 +2012,47 @@
 Sémillon
 Sauvignon
 Ugni blanc
-Vallée de la Loire
-Rouges
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Vallée de la Loire</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouges
 Cabernet franc
 Cabernet sauvignon
 Gamay
@@ -954,8 +2069,47 @@
 Tressalier
 Malvoisie (ancenis)
 Romorantin (Cour-Cheverny)
-Vallée du Rhône
-Cépages pour la vinification en rouge
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Vallée du Rhône</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cépages pour la vinification en rouge
 Camarèse
 Carignan
 Cinsault
@@ -979,36 +2133,260 @@
 Roussanne
 Ugni Blanc
 Viognier
- Italie
-Ligurie
-Rouges
-Rossese
-Trentin-Haut-Adige
-Rouges
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Ligurie</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Rouges
+Rossese</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Trentin-Haut-Adige</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Rouges
 Teroldego
 Lagrein
 Blancs
-Nosiola
-Toscane
-Rouges
+Nosiola</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Toscane</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Rouges
 Canaiolo
 Colorino
 Montepulciano
 Sangiovese
-Trebbiano
-Ombrie
-Blancs (Orvieto)
+Trebbiano</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Ombrie</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Blancs (Orvieto)
 Drupeggio
 Grechetto
 Procanico
-Verdello
-Val d'Aoste
-Rouges
+Verdello</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Val d'Aoste</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Rouges
 Fumin
 Cornalin
-Blancs
-Venetie
- Portugal
+Blancs</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Portugal</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Alfrocheiro Preto Arômes épicés, acidité marquée. Réglisse, poivre noir, menthe et fraise.
 Alvarinho (Minho) Ce cépage hors du commun permet des blancs très corsés. Acacia, asperge, herbe, écorce d'orange, pêche, citron et mandarine.
 Amaral
@@ -1064,9 +2442,84 @@
 Verdelho blanc
 Verdelho rouge
 Vinhão
- Suisse
-Vingt cantons cultivent la vigne sur une superficie totale de 15 000 hectares. 
-Principaux cépages pour la vinification en rouge
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suisse</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vingt cantons cultivent la vigne sur une superficie totale de 15 000 hectares. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suisse</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Principaux cépages pour la vinification en rouge</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cabernet franc
 Cabernet Jura
 Cabernet sauvignon
@@ -1082,7 +2535,47 @@
 Pinot noir
 Regent
 Syrah
-Principaux cépages pour la vinification en blanc
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suisse</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Principaux cépages pour la vinification en blanc</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Amigne
 Chardonnay
 Chasselas (ou Fendant)
@@ -1098,13 +2591,83 @@
 Savagnin (ou Heida, Païen)
 Sylvaner (ou Johannisberg)
 Viognier
-Caucase
-Viticulture en Abkhazie (en)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Caucase</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viticulture en Abkhazie (en)
 Viticulture en Arménie : Areni Noir, Khndogni ; Tchilar, Voskehat, Rkatsiteli, Mskhali...
 Viticulture en Azerbaidjan (en)
 Viticulture en Géorgie : Saperavi, Mtsvane, Pinot Noir, Cabernet Sauvignon ; Rkatsiteli, Chardonnay...
-Pays européens à faible production
-Viticulture en Albanie : Merlot, Shesh i zi, Cabernet Sauvignon, Kallmet ; Shesh i bardhe, Chardonnay
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_des_cépages_par_pays</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_c%C3%A9pages_par_pays</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Pays européens à faible production</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Viticulture en Albanie : Merlot, Shesh i zi, Cabernet Sauvignon, Kallmet ; Shesh i bardhe, Chardonnay
 Viticulture en Belgique : Pinot Noir ; Müller-Thurgau, Chardonnay, Pinot Gris, Pinot Blanc
 Viticulture en Bosnie-Herzégovine : Cabernet Sauvignon, Gamay, Merlot, plavka, trnjak, vranac ; žilavka, blatina, blanc bena, dobrogostina, krkošija, podbil...
 Viticulture en Bulgarie : Merlot, Pamid, Cabernet Sauvignon ; Rkatsiteli, Dimyat, Muscat Ottonel.
@@ -1113,14 +2676,14 @@
 Viticulture en Grande-Bretagne : Pinot Noir, Pinot Meunier ; Chardonnay, Seyval Blanc.
 Viticulture en Grèce : Agiorgitiko, Xinomavro ; Savatiano, Roditis, Muscat d'Alexandrie.
 Viticulture en Hongrie : Blaufränkisch/Kéfrankos, Kadarka, Cabernet Sauvignon ; Furmint, Harslevelu, Welschriesling.
-Viticulture au Kosovo[10]
+Viticulture au Kosovo
 Viticulture en Lettonie : Zilga.
 Viticulture au Liechtenstein : Blauburgunder, Zweigelt, Blaufränkisch ; Chardonnay, Riesling, Sylvaner, Gewurztraminer.
 Viticulture au Luxembourg : Rivaner/Müller-Thurgau, Pinot Gris, Auxerrois, Riesling, Pinot Blanc, Pinot Noir, Elbling, Chardonnay, Gewurztraminer.
 Viticulture en Macédoine du Nord : Stanusina, Vranac, Merlot ; Smederevka, Chardonnay.
 Viticulture à Malte : Gellewza, Cabernet Sauvignon, Syrah ; Ghirgentina, Sauvigon Blanc, Vermentino.
 Viticulture en Moldavie : Cabernet Sauvignon, Merlot, Pinot Noir, Isabelle ; Aligoté, Rkatsiteli.
-Viticulture au Montenegro[11] : Vranac, Zinfndel, Cabernet Sauvignon ; Krstač, Chardonnay.
+Viticulture au Montenegro : Vranac, Zinfndel, Cabernet Sauvignon ; Krstač, Chardonnay.
 Viticulture aux Pays-Bas
 Viticulture en Pologne : Pinot Noir, Regent, Rondo ; Solaris, Riesling, Chardonnay, Gewurztraminer.
 Viticulture en Roumanie : Merlot, Cabernet Sauvignon, Babeasca negra ; Feteasca Alba, Feteasca Regala, Grasevina.
